--- a/precos_voos.xlsx
+++ b/precos_voos.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Preço Mais Barato</t>
-  </si>
-  <si>
-    <t>Preço Médio</t>
-  </si>
-  <si>
-    <t>Dia da Semana</t>
-  </si>
-  <si>
-    <t>Sexta-feira</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,36 +420,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Mais Barato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Médio</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dia da Semana</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Origem</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Destino</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>604.99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718.7207692307693</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CWB - 19:15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>604.99</v>
-      </c>
-      <c r="C2">
-        <v>718.7207692307693</v>
+      <c r="B5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CWB - 18:45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CWB - 17:55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FOR - 23:25</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CWB - 15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CWB - 11:35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FOR - 11:50</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>475.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CWB - 10:50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>619.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>619.89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FOR - 00:55</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>669.89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>860.89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FOR - 11:55</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>860.89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FOR - 11:15</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1541.89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/precos_voos.xlsx
+++ b/precos_voos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,45 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Preço Mais Barato</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Preço Médio</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Origem</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Destino</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Dia da Semana</t>
         </is>
@@ -478,920 +483,948 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>604.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>718.7207692307693</v>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E3" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>475.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>653.7884615384615</v>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E4" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E5" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E6" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E7" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E8" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E9" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E10" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E11" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F11" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>619.89</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E12" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F12" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>619.89</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E13" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>669.89</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E14" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>860.89</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E15" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F15" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>860.89</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="n">
-        <v>475.13</v>
-      </c>
       <c r="E16" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>1541.89</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F17" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F19" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A21" s="1" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F21" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F22" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F23" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>619.89</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F25" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>619.89</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A26" s="1" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F26" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>669.89</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F27" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F27" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>860.89</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F28" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F28" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>860.89</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Domingo</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>653.7884615384615</v>
-      </c>
-      <c r="F29" t="inlineStr">
+        <v>475.13</v>
+      </c>
+      <c r="F29" t="n">
+        <v>653.7884615384615</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>1541.89</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1399,32 +1432,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F30" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1432,32 +1466,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F31" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1465,32 +1500,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F32" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1498,32 +1534,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F33" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1531,32 +1568,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F34" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1564,32 +1602,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F35" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="I35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1597,32 +1636,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F36" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>675.89</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1630,32 +1670,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F37" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>675.89</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1663,32 +1704,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F38" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>937.89</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1696,32 +1738,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F39" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>937.89</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1729,32 +1772,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F40" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>937.89</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1762,32 +1806,33 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F41" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>1534.89</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1795,30 +1840,439 @@
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F42" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>2264.99</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Segunda-feira</t>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CWB - 19:15</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CWB - 18:45</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F45" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CWB - 17:55</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FOR - 23:25</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F46" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CWB - 15:30</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F47" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CWB - 11:35</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F48" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FOR - 11:50</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F49" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F50" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FOR - 00:55</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>678.89</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F51" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F52" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CWB - 10:50</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F53" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="F54" t="n">
+        <v>803.89</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FOR - 11:55</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1534.89</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
         </is>
       </c>
     </row>

--- a/precos_voos.xlsx
+++ b/precos_voos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Preço Mais Barato</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Preço Médio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Origem</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Destino</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Dia da Semana</t>
         </is>
@@ -484,1389 +489,1430 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>604.99</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>718.7207692307693</v>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F3" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G3" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G4" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G5" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G6" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G7" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G8" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G9" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G10" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F11" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G11" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>619.89</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F12" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G12" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>619.89</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F13" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G13" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>669.89</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F14" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G14" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>860.89</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F15" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G15" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>860.89</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="n">
-        <v>475.13</v>
-      </c>
       <c r="F16" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G16" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1541.89</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G17" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G18" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G19" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G20" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G21" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G22" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G23" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G24" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>619.89</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G25" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>619.89</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G26" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>669.89</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G27" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>860.89</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G28" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>860.89</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="G29" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>1541.89</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G30" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G31" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G32" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G33" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G34" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G35" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G36" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>675.89</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G37" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>675.89</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G38" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>937.89</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G39" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>937.89</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G40" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>937.89</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G41" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>1534.89</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G42" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>2264.99</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1874,33 +1920,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G43" t="n">
         <v>803.89</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1908,33 +1955,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G44" t="n">
         <v>803.89</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1942,33 +1990,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G45" t="n">
         <v>803.89</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1976,33 +2025,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G46" t="n">
         <v>803.89</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2010,33 +2060,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G47" t="n">
         <v>803.89</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2044,33 +2095,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G48" t="n">
         <v>803.89</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2078,33 +2130,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G49" t="n">
         <v>803.89</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="J49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2112,33 +2165,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G50" t="n">
         <v>803.89</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>678.89</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2146,33 +2200,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G51" t="n">
         <v>803.89</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>937.89</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2180,33 +2235,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G52" t="n">
         <v>803.89</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>937.89</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2214,33 +2270,34 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G53" t="n">
         <v>803.89</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>937.89</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2248,31 +2305,452 @@
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="G54" t="n">
         <v>803.89</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>1534.89</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Terça-feira</t>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CWB - 19:15</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CWB - 18:45</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CWB - 17:55</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>FOR - 23:25</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>CWB - 15:30</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>FOR - 11:50</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>FOR - 00:55</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>701.89</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CWB - 10:50</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>FOR - 11:55</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1463.89</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CWB - 11:35</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>614.89</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1048.473333333333</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
         </is>
       </c>
     </row>

--- a/precos_voos.xlsx
+++ b/precos_voos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Preço Mais Barato</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Preço Médio</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Origem</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Destino</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dia da Semana</t>
         </is>
@@ -490,1849 +495,1902 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>604.99</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>718.7207692307693</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G3" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H3" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H4" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H5" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H6" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H7" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H8" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H9" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H10" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G11" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H11" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>619.89</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="F12" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G12" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H12" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>619.89</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="F13" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G13" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H13" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>669.89</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="F14" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G14" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H14" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>860.89</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="F15" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G15" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H15" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>860.89</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="F16" t="n">
-        <v>475.13</v>
-      </c>
       <c r="G16" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H16" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1541.89</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H17" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H18" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H19" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H20" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H21" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J21" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H22" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H23" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J23" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H24" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>619.89</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H25" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>619.89</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H26" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>669.89</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H27" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>860.89</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H28" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>860.89</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="H29" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>1541.89</v>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H30" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J30" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H31" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H32" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="J32" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H33" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J33" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H34" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J34" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H35" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="J35" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H36" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>675.89</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H37" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>675.89</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H38" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>937.89</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H39" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>937.89</v>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H40" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>937.89</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H41" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>1534.89</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H42" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>2264.99</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H43" t="n">
         <v>803.89</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J43" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H44" t="n">
         <v>803.89</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J44" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H45" t="n">
         <v>803.89</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="J45" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H46" t="n">
         <v>803.89</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J46" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H47" t="n">
         <v>803.89</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J47" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H48" t="n">
         <v>803.89</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="J48" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H49" t="n">
         <v>803.89</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J49" t="n">
-        <v>659.89</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H50" t="n">
         <v>803.89</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>678.89</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H51" t="n">
         <v>803.89</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>937.89</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H52" t="n">
         <v>803.89</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>937.89</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H53" t="n">
         <v>803.89</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>937.89</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>659.89</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
+        <v>659.89</v>
+      </c>
+      <c r="H54" t="n">
         <v>803.89</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>1534.89</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2340,34 +2398,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
         <v>614.89</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>614.89</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2375,34 +2434,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
         <v>614.89</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>614.89</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2410,34 +2470,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
         <v>614.89</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>614.89</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2445,34 +2506,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
         <v>614.89</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>614.89</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2480,34 +2542,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
         <v>614.89</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>614.89</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2515,34 +2578,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
         <v>614.89</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>701.89</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2550,34 +2614,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
         <v>614.89</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>937.89</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2585,34 +2650,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
         <v>614.89</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>937.89</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2620,34 +2686,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
         <v>614.89</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>937.89</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2655,34 +2722,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
         <v>614.89</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>1463.89</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2690,34 +2758,35 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
         <v>614.89</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>2263.89</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2725,32 +2794,501 @@
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
         <v>614.89</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>2263.89</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Quarta-feira</t>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CWB - 19:15</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CWB - 18:45</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CWB - 17:55</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>FOR - 23:25</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>CWB - 15:30</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>FOR - 11:50</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>615.89</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>FOR - 00:55</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CWB - 10:50</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>FOR - 11:55</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1400.89</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CWB - 11:35</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1144.433076923077</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>FOR - 11:15</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>2264.99</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
         </is>
       </c>
     </row>

--- a/precos_voos.xlsx
+++ b/precos_voos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Preço Mais Barato</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Preço Médio</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Origem</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Destino</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Dia da Semana</t>
         </is>
@@ -496,19 +501,20 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>604.99</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>718.7207692307693</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -516,2313 +522,2377 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H3" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I3" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I4" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I5" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I6" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I7" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I8" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I9" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I10" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H11" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I11" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>619.89</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H12" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I12" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>619.89</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H13" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I13" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>669.89</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H14" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I14" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>860.89</v>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H15" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I15" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>860.89</v>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sábado</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="n">
-        <v>475.13</v>
-      </c>
       <c r="H16" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I16" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1541.89</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I17" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I18" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I19" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I20" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I21" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I22" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I23" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>475.13</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I24" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>619.89</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I25" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>619.89</v>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I26" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>669.89</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I27" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>860.89</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I28" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>860.89</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Domingo</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>475.13</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
+        <v>475.13</v>
+      </c>
+      <c r="I29" t="n">
         <v>653.7884615384615</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>1541.89</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
         <v>659.89</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>659.89</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
         <v>659.89</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>659.89</v>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
         <v>659.89</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>659.89</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
         <v>659.89</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>659.89</v>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
         <v>659.89</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>659.89</v>
       </c>
-      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
         <v>659.89</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>659.89</v>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
         <v>659.89</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>675.89</v>
       </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
         <v>659.89</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>675.89</v>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
         <v>659.89</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>937.89</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
         <v>659.89</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>937.89</v>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
         <v>659.89</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>937.89</v>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
         <v>659.89</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>1534.89</v>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Segunda-feira</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
         <v>659.89</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>917.2823076923077</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>2264.99</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
         <v>659.89</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>803.89</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>659.89</v>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>659.89</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>803.89</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>659.89</v>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>659.89</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>803.89</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>659.89</v>
       </c>
-      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>659.89</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>803.89</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>659.89</v>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>659.89</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>803.89</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>659.89</v>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>659.89</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>803.89</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>659.89</v>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
         <v>659.89</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>803.89</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>659.89</v>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
         <v>659.89</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>803.89</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>678.89</v>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
         <v>659.89</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>803.89</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>937.89</v>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
         <v>659.89</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>803.89</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>937.89</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
         <v>659.89</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>803.89</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>937.89</v>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Terça-feira</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
         <v>659.89</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>803.89</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>1534.89</v>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
         <v>614.89</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>614.89</v>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="n">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
         <v>614.89</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>614.89</v>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
         <v>614.89</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>614.89</v>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
         <v>614.89</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>614.89</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
         <v>614.89</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>614.89</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="n">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
         <v>614.89</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>701.89</v>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
         <v>614.89</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>937.89</v>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
         <v>614.89</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>937.89</v>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
         <v>614.89</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>937.89</v>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
         <v>614.89</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>1463.89</v>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
         <v>614.89</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>2263.89</v>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Quarta-feira</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
         <v>614.89</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>1048.473333333333</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>2263.89</v>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2830,35 +2900,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
         <v>579.13</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>CWB - 19:15</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>579.13</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2866,35 +2937,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
         <v>579.13</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>CWB - 18:45</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>579.13</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2902,35 +2974,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="n">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
         <v>579.13</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>CWB - 17:55</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>FOR - 23:25</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>579.13</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2938,35 +3011,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="n">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
         <v>579.13</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>CWB - 15:30</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>FOR - 01:30</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>579.13</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2974,35 +3048,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="n">
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
         <v>579.13</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>FOR - 11:50</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>615.89</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3010,35 +3085,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="n">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
         <v>579.13</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>FOR - 02:30</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>937.89</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3046,35 +3122,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="n">
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
         <v>579.13</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>CWB - 18:55</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>FOR - 00:55</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>937.89</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3082,35 +3159,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="n">
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
         <v>579.13</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>CWB - 10:50</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>937.89</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3118,35 +3196,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="n">
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
         <v>579.13</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>FOR - 16:40</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>937.89</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3154,35 +3233,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="n">
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
         <v>579.13</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>CWB - 06:05</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>FOR - 11:55</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>1400.89</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3190,35 +3270,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="n">
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
         <v>579.13</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>CWB - 11:35</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>2263.89</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3226,35 +3307,36 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="n">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
         <v>579.13</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>FOR - 17:45</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>2263.89</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3262,33 +3344,515 @@
           <t>Quinta-feira</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Quinta-feira</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="n">
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
         <v>579.13</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>1144.433076923077</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>CWB - 06:10</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>FOR - 11:15</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>2264.99</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Quinta-feira</t>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>CWB - 19:15</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>CWB - 18:45</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>CWB - 17:55</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>FOR - 23:25</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>CWB - 15:30</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>FOR - 01:30</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>FOR - 11:50</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>615.89</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>FOR - 02:30</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>CWB - 10:50</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>FOR - 16:40</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>937.89</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>CWB - 18:55</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>FOR - 00:55</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1400.89</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>CWB - 06:05</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>FOR - 11:55</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1400.89</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>CWB - 11:35</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>FOR - 17:45</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2263.89</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>579.13</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1180.048461538461</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>CWB - 06:10</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>FOR - 11:15</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2264.99</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
         </is>
       </c>
     </row>
